--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8660,7 +8661,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -8692,7 +8692,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -8708,6 +8707,3024 @@
       </c>
       <c r="H121" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.9584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.2212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.9771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>262.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.1631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7357</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>95.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.5903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.5222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.7105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.6966</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1891</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4748</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.4013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0098</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1579</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0573</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7967</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7567</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5382</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5175</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4634</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3398</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2711</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002562</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泓德泓益量化混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11730,4 +11731,2642 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0365</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>217.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8210</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.9164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7928</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6895</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2686</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8449</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7856</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4024</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2539</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>59.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14369,4 +14370,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.20999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14378,7 +14379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14389,17 +14390,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14409,14 +14430,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.83</v>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14425,14 +14468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>98.87</v>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -14441,14 +14506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.97</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14457,13 +14544,2773 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>208.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.3739</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.3073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>118.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.7737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.6835</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.3896</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.2254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8799</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7919</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6182</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0354</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0034</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9462</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8343</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8312</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2682</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>78</v>
+      </c>
+      <c r="D4" t="n">
+        <v>98.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>88.20999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17209,7 +17210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17220,17 +17221,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17240,14 +17261,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.14</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -17256,14 +17299,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.83</v>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -17272,14 +17337,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D4" t="n">
-        <v>98.87</v>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17288,14 +17375,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>120</v>
-      </c>
-      <c r="D5" t="n">
-        <v>96.97</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17304,13 +17413,2751 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.6984</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>178.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.1340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8576</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4480</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8286</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9757</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9561</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7991</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0710</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7545</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7233</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5656</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3334</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>88.20999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
+++ b/数据整理/stocks/A股/创业板/300012-华测检测.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20040,7 +20041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20051,17 +20052,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20071,14 +20092,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.05</v>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.1888</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -20087,14 +20130,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.14</v>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -20103,14 +20168,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>70.83</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.4693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -20119,14 +20206,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" t="n">
-        <v>98.87</v>
+          <t>166006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -20135,14 +20244,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>120</v>
-      </c>
-      <c r="D6" t="n">
-        <v>96.97</v>
+          <t>270002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>179.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.8756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -20151,13 +20282,3673 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3571</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4357</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3755</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0850</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9945</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1848</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9289</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005276</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实服务增值行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7195</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6724</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004231</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6517</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5352</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3831</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>959991</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014421</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧成长领航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009326</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008376</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧启航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001886</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧行业成长混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011781</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德慧享混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>168101</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰锐智事件驱动混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>959993</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟领先优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>970094</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>970093</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>970120</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>970119</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>970095</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>970121</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟恒睿致远一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011782</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泓德慧享混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>98.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>96.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>88.20999999999999</v>
       </c>
     </row>
